--- a/課題使用ファイル/課題1使用ファイル/設定.xlsx
+++ b/課題使用ファイル/課題1使用ファイル/設定.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>設定項目</t>
     <rPh sb="0" eb="2">
@@ -60,12 +60,19 @@
   <si>
     <t>http://127.0.0.1:8887/login.html</t>
   </si>
+  <si>
+    <t>→　UiPath.Credentials.Activitiesを使用してもOKです。</t>
+    <rPh sb="32" eb="34">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +95,14 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -137,7 +152,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -148,6 +163,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -445,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -455,7 +473,7 @@
     <col min="2" max="2" width="39.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,7 +481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -471,7 +489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -479,12 +497,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
